--- a/домашка 10.11.2018.xlsx
+++ b/домашка 10.11.2018.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander.kobchenko/Documents/GitHub/QAtesterZoyaChekmeneva/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2B69BA-4E90-9647-B8E2-0574C6B73C19}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ФУНКЦИОНАЛЬНЫЕ ТРЕБОВАНИЯ К ОТПРАВКЕ НЕТЕКСТОВЫХ СООБЩЕНИЙ МЕССЕНДЖЕРА:</t>
   </si>
@@ -109,13 +115,52 @@
   </si>
   <si>
     <t>7. Возможность увидеть, к какой группе контактов относится получатель.</t>
+  </si>
+  <si>
+    <t>Серьезно? Был в сети в такое то время? Мы же про свой профиль говорим , мы всегда будем онлайн, либо в крайнем случае добавить требование на функционал "спрятаться", т.е. когда мы онлайн, но для всех мы оффлайн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">откуда? С камеры, с галереи, с интернета? </t>
+  </si>
+  <si>
+    <t>Тему профиля? Или все же цветовое оформление (вспомни про недвусмысленность) всего приложения? В том числе и сообщений.</t>
+  </si>
+  <si>
+    <t>Графическая заставка - гифка чтоли? Или заставка при включении приложения? Или заставка всего телефона при работающем приложении (недвусмысленность привет!)</t>
+  </si>
+  <si>
+    <t>Каким образом? Наверное в специальных текстовых полях, которые всегда доступны для редактирования (или наоборот, по нажатию на кнопку редактирования)</t>
+  </si>
+  <si>
+    <t>А зачем? Тема - личное дело каждого, вдруг мы позволим в виде темы использовать фотографию и кто-то будет использовать фото ребенка а кто-то - свое фото в неглиже.</t>
+  </si>
+  <si>
+    <t>Аналогично</t>
+  </si>
+  <si>
+    <t>Хорошо, ео нужно учитывать что где-то в другом месте должно быть требование про функционал групп контактов</t>
+  </si>
+  <si>
+    <t>Смайлики?</t>
+  </si>
+  <si>
+    <t>откуда? Галерея, камера. К тому же корректнее употреблять "изображений"</t>
+  </si>
+  <si>
+    <t>дублирует пункты 3-6 в общем виде</t>
+  </si>
+  <si>
+    <t>Проистекают из требований 1 и 2 (без своей пары каждое требование бесполезно, поэтому нужно указывать их в паре сразу, т.е. возможность совершать и принимать аудиозвонки)</t>
+  </si>
+  <si>
+    <t>аналогично пункту 8 и пунктам 9-10, у тебя может быть вообще обмен файлами (любыми,при этом должны быть  и отправка и получение, иначе бессмысленно), а если ты ограничиваешь типы файлов только видео-аудио-записями, тогда другая часть пунктов лишняя</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +173,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -154,8 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -165,19 +221,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,9 +291,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +325,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,9 +377,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,308 +570,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="28" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="57" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="1" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1" t="s">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2" t="s">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2" t="s">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
+  <mergeCells count="38">
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E18"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -767,24 +971,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
